--- a/ExcelPython/Camp1.xlsx
+++ b/ExcelPython/Camp1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\ExcelPython\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitWorkspace\Python\ExcelPython\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6759F53D-3C26-4095-BED2-7EFEE151DD8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B465FCEA-E2FE-44BF-B0CB-45B538A1F027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18338" yWindow="743" windowWidth="14655" windowHeight="13357" xr2:uid="{30E82AA1-9B4C-44EA-8721-2544B3CB49E4}"/>
+    <workbookView xWindow="18713" yWindow="817" windowWidth="14655" windowHeight="13358" xr2:uid="{30E82AA1-9B4C-44EA-8721-2544B3CB49E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -77,21 +77,64 @@
       <family val="2"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="IBM Plex Sans KR"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF0000FF"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -100,12 +143,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -441,15 +490,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D65C731-2B2C-4AA0-9E1A-831E4FE5FBC9}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection sqref="A1:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.149999999999999" x14ac:dyDescent="0.65"/>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -458,60 +508,61 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A6">
+    <row r="6" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.7">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>29</v>
       </c>
     </row>
+    <row r="7" spans="1:3" ht="19.5" thickTop="1" x14ac:dyDescent="0.65"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExcelPython/Camp1.xlsx
+++ b/ExcelPython/Camp1.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitWorkspace\Python\ExcelPython\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B465FCEA-E2FE-44BF-B0CB-45B538A1F027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DE34075-8FFF-4C36-A973-C02CFDEE05DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18713" yWindow="817" windowWidth="14655" windowHeight="13358" xr2:uid="{30E82AA1-9B4C-44EA-8721-2544B3CB49E4}"/>
+    <workbookView xWindow="18713" yWindow="817" windowWidth="14655" windowHeight="13358" activeTab="1" xr2:uid="{30E82AA1-9B4C-44EA-8721-2544B3CB49E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -109,28 +110,28 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFF0000"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FFFF0000"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="FFFF0000"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFFF0000"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFF0000"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FFFF0000"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="FFFF0000"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thick">
         <color rgb="FF0000FF"/>
@@ -492,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D65C731-2B2C-4AA0-9E1A-831E4FE5FBC9}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.149999999999999" x14ac:dyDescent="0.65"/>
@@ -567,4 +568,98 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FE078B-16FE-4C85-A32C-4BC0F9B3F4D2}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.149999999999999" x14ac:dyDescent="0.65"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.65">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.65">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.65">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.65">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.65">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.65">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.65">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.65">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.65">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.65">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>